--- a/Files/rediffmail.xlsx
+++ b/Files/rediffmail.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>rediffmailId</t>
   </si>
@@ -132,13 +133,73 @@
     <t>vxbn</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
     <t>alpe</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>1231231234</t>
+  </si>
+  <si>
+    <t>1234123412</t>
+  </si>
+  <si>
+    <t>1234512345</t>
+  </si>
+  <si>
+    <t>4564564567</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>98765432</t>
+  </si>
+  <si>
+    <t>45454545</t>
+  </si>
+  <si>
+    <t>67676767</t>
+  </si>
+  <si>
+    <t>89898989</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>MAY</t>
   </si>
 </sst>
 </file>
@@ -201,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +272,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,15 +574,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -551,34 +620,35 @@
       <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>12345678</v>
-      </c>
-      <c r="D2">
-        <v>12345678</v>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>9876543210</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="I2">
-        <v>2005</v>
+      <c r="I2" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -586,34 +656,35 @@
       <c r="K2" t="s">
         <v>27</v>
       </c>
+      <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>98765432</v>
-      </c>
-      <c r="D3">
-        <v>98765432</v>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>1231231234</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="I3">
-        <v>2006</v>
+      <c r="I3" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
@@ -622,33 +693,33 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>45454545</v>
-      </c>
-      <c r="D4">
-        <v>45454545</v>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>1234123412</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
+      <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="I4">
-        <v>2007</v>
+      <c r="I4" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -657,33 +728,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>67676767</v>
-      </c>
-      <c r="D5">
-        <v>67676767</v>
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>1234512345</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
+      <c r="F5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="I5">
-        <v>2008</v>
+      <c r="I5" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -692,39 +763,39 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>89898989</v>
-      </c>
-      <c r="D6">
-        <v>89898989</v>
+      <c r="C6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
-        <v>4564564567</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
+      <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="I6">
-        <v>2009</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>39</v>
-      </c>
-      <c r="K6" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -763,4 +834,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" scale="285" orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>